--- a/FISHTRADER/ARIMA/Data_FS_04.24/Dados@tech.xlsx
+++ b/FISHTRADER/ARIMA/Data_FS_04.24/Dados@tech.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Consumo proteínas (ITEM 1)" sheetId="1" state="visible" r:id="rId2"/>
@@ -760,8 +760,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -937,9 +941,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
+      <xdr:colOff>88200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -953,7 +957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="601920" y="0"/>
-          <a:ext cx="88560" cy="212400"/>
+          <a:ext cx="88200" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -974,9 +978,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>12240</xdr:colOff>
+      <xdr:colOff>11880</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -990,7 +994,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="23307840"/>
-          <a:ext cx="12240" cy="12240"/>
+          <a:ext cx="11880" cy="11880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1011,9 +1015,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>31320</xdr:colOff>
+      <xdr:colOff>30960</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1027,7 +1031,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19080" y="23307840"/>
-          <a:ext cx="12240" cy="12240"/>
+          <a:ext cx="11880" cy="11880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1048,9 +1052,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>50400</xdr:colOff>
+      <xdr:colOff>50040</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1064,7 +1068,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="38160" y="23307840"/>
-          <a:ext cx="12240" cy="12240"/>
+          <a:ext cx="11880" cy="11880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1085,9 +1089,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1101,7 +1105,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3611880" y="0"/>
-          <a:ext cx="69480" cy="69480"/>
+          <a:ext cx="69120" cy="69120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1123,288 +1127,288 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="73.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>2012</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>2013</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>2014</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>2015</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>2016</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>2018</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="2" t="n">
         <v>2019</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="2" t="n">
         <v>2020</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="2" t="n">
         <v>2022</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>45</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>41.8</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="3" t="n">
         <v>42.8</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>43.3</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>41.1</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="3" t="n">
         <v>42.1</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="3" t="n">
         <v>42.8</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="3" t="n">
         <v>45.3</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="3" t="n">
         <v>45.6</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="3" t="n">
         <v>45.2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>14.9</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>14.5</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="3" t="n">
         <v>14.7</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>15.1</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>14.4</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="3" t="n">
         <v>14.7</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="3" t="n">
         <v>15.9</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="3" t="n">
         <v>15.3</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="3" t="n">
         <v>16.7</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="4" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>161</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>168</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="3" t="n">
         <v>182</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>191</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>190</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="3" t="n">
         <v>192</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3" t="n">
         <v>212</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="3" t="n">
         <v>251</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="3" t="n">
         <v>257</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="3" t="n">
         <v>241</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>118.4</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>122.5</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="3" t="n">
         <v>124.1</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>121.9</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>120.9</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="3" t="n">
         <v>123.1</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="3" t="n">
         <v>123.2</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="3" t="n">
         <v>124.3</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="3" t="n">
         <v>127.4</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="3" t="n">
         <v>122.2</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="3" t="n">
         <v>116.7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="3" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>10.8</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>11.7</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D9" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="3" t="n">
         <v>11.1</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>10.7</v>
       </c>
-      <c r="G9" s="2" t="n">
+      <c r="G9" s="3" t="n">
         <v>11.1</v>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="3" t="n">
         <v>10.6</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="3" t="n">
         <v>10.4</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="3" t="n">
         <v>10.2</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="3" t="n">
         <v>10.5</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1424,723 +1428,720 @@
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="8" t="n">
         <v>41609</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>3332</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>7184</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9" t="n">
         <v>10516</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="8" t="n">
         <v>41640</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>1059</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>11578</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9" t="n">
         <v>12637</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="8" t="n">
         <v>41671</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>502</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>8216</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <v>8718</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="8" t="n">
         <v>41699</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>5165</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>5165</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="8" t="n">
         <v>41730</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="9" t="n">
         <v>5069</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="9" t="n">
         <v>5069</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="8" t="n">
         <v>41760</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9" t="n">
         <v>3506</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="9" t="n">
         <v>3506</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="8" t="n">
         <v>41791</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="9" t="n">
         <v>2875</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="9" t="n">
         <v>2875</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="8" t="n">
         <v>41821</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="9" t="n">
         <v>4285</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="9" t="n">
         <v>4285</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="8" t="n">
         <v>41852</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="9" t="n">
         <v>4997</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="9" t="n">
         <v>4997</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="8" t="n">
         <v>41883</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="9" t="n">
         <v>4069</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="9" t="n">
         <v>4069</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="8" t="n">
         <v>41913</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="9" t="n">
         <v>3601</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="9" t="n">
         <v>3601</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="8" t="n">
         <v>41944</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="9" t="n">
         <v>156</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="9" t="n">
         <v>4426</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="9" t="n">
         <v>4582</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="8" t="n">
         <v>41974</v>
       </c>
-      <c r="B14" s="8" t="n">
+      <c r="B14" s="9" t="n">
         <v>4595</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="9" t="n">
         <v>6840</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="9" t="n">
         <v>11435</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="8" t="n">
         <v>42005</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="9" t="n">
         <v>4549</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="9" t="n">
         <v>7455</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="9" t="n">
         <v>12004</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="8" t="n">
         <v>42036</v>
       </c>
-      <c r="B16" s="8" t="n">
+      <c r="B16" s="9" t="n">
         <v>969</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="9" t="n">
         <v>10661</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="9" t="n">
         <v>11630</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="8" t="n">
         <v>42064</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="9" t="n">
         <v>568</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="9" t="n">
         <v>16261</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="9" t="n">
         <v>16829</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="8" t="n">
         <v>42095</v>
       </c>
-      <c r="B18" s="8" t="n">
+      <c r="B18" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="9" t="n">
         <v>16145</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="9" t="n">
         <v>16145</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="8" t="n">
         <v>42125</v>
       </c>
-      <c r="B19" s="8" t="n">
+      <c r="B19" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="9" t="n">
         <v>7462</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="9" t="n">
         <v>7462</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+      <c r="A20" s="8" t="n">
         <v>42156</v>
       </c>
-      <c r="B20" s="8" t="n">
+      <c r="B20" s="9" t="n">
         <v>744</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="9" t="n">
         <v>3189</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="9" t="n">
         <v>3933</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+      <c r="A21" s="8" t="n">
         <v>42186</v>
       </c>
-      <c r="B21" s="8" t="n">
+      <c r="B21" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="9" t="n">
         <v>4891</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="9" t="n">
         <v>4891</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+      <c r="A22" s="8" t="n">
         <v>42217</v>
       </c>
-      <c r="B22" s="8" t="n">
+      <c r="B22" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="9" t="n">
         <v>5423</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="9" t="n">
         <v>5423</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+      <c r="A23" s="8" t="n">
         <v>42248</v>
       </c>
-      <c r="B23" s="8" t="n">
+      <c r="B23" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C23" s="8" t="n">
+      <c r="C23" s="9" t="n">
         <v>4825</v>
       </c>
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="9" t="n">
         <v>4825</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+      <c r="A24" s="8" t="n">
         <v>42278</v>
       </c>
-      <c r="B24" s="8" t="n">
+      <c r="B24" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="9" t="n">
         <v>6038</v>
       </c>
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="9" t="n">
         <v>6038</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+      <c r="A25" s="8" t="n">
         <v>42309</v>
       </c>
-      <c r="B25" s="8" t="n">
+      <c r="B25" s="9" t="n">
         <v>996</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="9" t="n">
         <v>9512</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="9" t="n">
         <v>10508</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+      <c r="A26" s="8" t="n">
         <v>42339</v>
       </c>
-      <c r="B26" s="8" t="n">
+      <c r="B26" s="9" t="n">
         <v>5321</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="9" t="n">
         <v>16489</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="D26" s="9" t="n">
         <v>21810</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+      <c r="A27" s="8" t="n">
         <v>42370</v>
       </c>
-      <c r="B27" s="8" t="n">
+      <c r="B27" s="9" t="n">
         <v>5456</v>
       </c>
-      <c r="C27" s="8" t="n">
+      <c r="C27" s="9" t="n">
         <v>14663</v>
       </c>
-      <c r="D27" s="8" t="n">
+      <c r="D27" s="9" t="n">
         <v>20119</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+      <c r="A28" s="8" t="n">
         <v>42401</v>
       </c>
-      <c r="B28" s="8" t="n">
+      <c r="B28" s="9" t="n">
         <v>2452</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="9" t="n">
         <v>15377</v>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="D28" s="9" t="n">
         <v>17829</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+      <c r="A29" s="8" t="n">
         <v>42430</v>
       </c>
-      <c r="B29" s="8" t="n">
+      <c r="B29" s="9" t="n">
         <v>4882</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="9" t="n">
         <v>17424</v>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="D29" s="9" t="n">
         <v>22306</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+      <c r="A30" s="8" t="n">
         <v>42461</v>
       </c>
-      <c r="B30" s="8" t="n">
+      <c r="B30" s="9" t="n">
         <v>2639</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="9" t="n">
         <v>12829</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30" s="9" t="n">
         <v>15468</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+      <c r="A31" s="8" t="n">
         <v>42491</v>
       </c>
-      <c r="B31" s="8" t="n">
+      <c r="B31" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="9" t="n">
         <v>5625</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="9" t="n">
         <v>5625</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+      <c r="A32" s="8" t="n">
         <v>42522</v>
       </c>
-      <c r="B32" s="8" t="n">
+      <c r="B32" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="9" t="n">
         <v>5573</v>
       </c>
-      <c r="D32" s="8" t="n">
+      <c r="D32" s="9" t="n">
         <v>5573</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+      <c r="A33" s="8" t="n">
         <v>42552</v>
       </c>
-      <c r="B33" s="8" t="n">
+      <c r="B33" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="9" t="n">
         <v>11144</v>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="D33" s="9" t="n">
         <v>11144</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+      <c r="A34" s="8" t="n">
         <v>42583</v>
       </c>
-      <c r="B34" s="8" t="n">
+      <c r="B34" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C34" s="9" t="n">
         <v>9815</v>
       </c>
-      <c r="D34" s="8" t="n">
+      <c r="D34" s="9" t="n">
         <v>9815</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+      <c r="A35" s="8" t="n">
         <v>42614</v>
       </c>
-      <c r="B35" s="8" t="n">
+      <c r="B35" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="C35" s="8" t="n">
+      <c r="C35" s="9" t="n">
         <v>12580</v>
       </c>
-      <c r="D35" s="8" t="n">
+      <c r="D35" s="9" t="n">
         <v>12580</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+      <c r="A36" s="8" t="n">
         <v>42644</v>
       </c>
-      <c r="B36" s="8" t="n">
+      <c r="B36" s="9" t="n">
         <v>6373</v>
       </c>
-      <c r="C36" s="8" t="n">
+      <c r="C36" s="9" t="n">
         <v>12238</v>
       </c>
-      <c r="D36" s="8" t="n">
+      <c r="D36" s="9" t="n">
         <v>18611</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="n">
+      <c r="A37" s="8" t="n">
         <v>42675</v>
       </c>
-      <c r="B37" s="8" t="n">
+      <c r="B37" s="9" t="n">
         <v>7225</v>
       </c>
-      <c r="C37" s="8" t="n">
+      <c r="C37" s="9" t="n">
         <v>19195</v>
       </c>
-      <c r="D37" s="8" t="n">
+      <c r="D37" s="9" t="n">
         <v>26420</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="n">
+      <c r="A38" s="8" t="n">
         <v>42705</v>
       </c>
-      <c r="B38" s="8" t="n">
+      <c r="B38" s="9" t="n">
         <v>5508</v>
       </c>
-      <c r="C38" s="8" t="n">
+      <c r="C38" s="9" t="n">
         <v>29742</v>
       </c>
-      <c r="D38" s="8" t="n">
+      <c r="D38" s="9" t="n">
         <v>35250</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="n">
+      <c r="A39" s="8" t="n">
         <v>42736</v>
       </c>
-      <c r="B39" s="8" t="n">
+      <c r="B39" s="9" t="n">
         <v>2521</v>
       </c>
-      <c r="C39" s="8" t="n">
+      <c r="C39" s="9" t="n">
         <v>26531</v>
       </c>
-      <c r="D39" s="8" t="n">
+      <c r="D39" s="9" t="n">
         <v>29052</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="n">
+      <c r="A40" s="8" t="n">
         <v>42767</v>
       </c>
-      <c r="B40" s="8" t="n">
+      <c r="B40" s="9" t="n">
         <v>6382</v>
       </c>
-      <c r="C40" s="8" t="n">
+      <c r="C40" s="9" t="n">
         <v>21460</v>
       </c>
-      <c r="D40" s="8" t="n">
+      <c r="D40" s="9" t="n">
         <v>27842</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+      <c r="A41" s="8" t="n">
         <v>42795</v>
       </c>
-      <c r="B41" s="8" t="n">
+      <c r="B41" s="9" t="n">
         <v>5993</v>
       </c>
-      <c r="C41" s="8" t="n">
+      <c r="C41" s="9" t="n">
         <v>30774</v>
       </c>
-      <c r="D41" s="8" t="n">
+      <c r="D41" s="9" t="n">
         <v>36767</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="n">
+      <c r="A42" s="8" t="n">
         <v>42826</v>
       </c>
-      <c r="B42" s="8" t="n">
+      <c r="B42" s="9" t="n">
         <v>1478</v>
       </c>
-      <c r="C42" s="8" t="n">
+      <c r="C42" s="9" t="n">
         <v>23389</v>
       </c>
-      <c r="D42" s="8" t="n">
+      <c r="D42" s="9" t="n">
         <v>24867</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+      <c r="A43" s="8" t="n">
         <v>42856</v>
       </c>
-      <c r="B43" s="8" t="n">
+      <c r="B43" s="9" t="n">
         <v>4337</v>
       </c>
-      <c r="C43" s="8" t="n">
+      <c r="C43" s="9" t="n">
         <v>16541</v>
       </c>
-      <c r="D43" s="8" t="n">
+      <c r="D43" s="9" t="n">
         <v>20878</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
+      <c r="A44" s="8" t="n">
         <v>42887</v>
       </c>
-      <c r="B44" s="8" t="n">
+      <c r="B44" s="9" t="n">
         <v>2521</v>
       </c>
-      <c r="C44" s="8" t="n">
+      <c r="C44" s="9" t="n">
         <v>11315</v>
       </c>
-      <c r="D44" s="8" t="n">
+      <c r="D44" s="9" t="n">
         <v>13836</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="n">
+      <c r="A45" s="8" t="n">
         <v>42917</v>
       </c>
-      <c r="B45" s="8" t="n">
+      <c r="B45" s="9" t="n">
         <v>11395</v>
       </c>
-      <c r="C45" s="8" t="n">
+      <c r="C45" s="9" t="n">
         <v>15633</v>
       </c>
-      <c r="D45" s="8" t="n">
+      <c r="D45" s="9" t="n">
         <v>27028</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
+      <c r="A46" s="8" t="n">
         <v>42948</v>
       </c>
-      <c r="B46" s="8" t="n">
+      <c r="B46" s="9" t="n">
         <v>15347</v>
       </c>
-      <c r="C46" s="8" t="n">
+      <c r="C46" s="9" t="n">
         <v>17273</v>
       </c>
-      <c r="D46" s="8" t="n">
+      <c r="D46" s="9" t="n">
         <v>32620</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="n">
+      <c r="A47" s="8" t="n">
         <v>42979</v>
       </c>
-      <c r="B47" s="8" t="n">
+      <c r="B47" s="9" t="n">
         <v>13495</v>
       </c>
-      <c r="C47" s="8" t="n">
+      <c r="C47" s="9" t="n">
         <v>27960</v>
       </c>
-      <c r="D47" s="8" t="n">
+      <c r="D47" s="9" t="n">
         <v>41455</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="n">
+      <c r="A48" s="8" t="n">
         <v>43009</v>
       </c>
-      <c r="B48" s="8" t="n">
+      <c r="B48" s="9" t="n">
         <v>3762</v>
       </c>
-      <c r="C48" s="8" t="n">
+      <c r="C48" s="9" t="n">
         <v>41730</v>
       </c>
-      <c r="D48" s="8" t="n">
+      <c r="D48" s="9" t="n">
         <v>45492</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="n">
+      <c r="A49" s="8" t="n">
         <v>43040</v>
       </c>
-      <c r="B49" s="8" t="n">
+      <c r="B49" s="9" t="n">
         <v>3414</v>
       </c>
-      <c r="C49" s="8" t="n">
+      <c r="C49" s="9" t="n">
         <v>43698</v>
       </c>
-      <c r="D49" s="8" t="n">
+      <c r="D49" s="9" t="n">
         <v>47112</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="n">
+      <c r="A50" s="8" t="n">
         <v>43070</v>
       </c>
-      <c r="B50" s="8" t="n">
+      <c r="B50" s="9" t="n">
         <v>7185</v>
       </c>
-      <c r="C50" s="8" t="n">
+      <c r="C50" s="9" t="n">
         <v>58636</v>
       </c>
-      <c r="D50" s="8" t="n">
+      <c r="D50" s="9" t="n">
         <v>65821</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="0" t="n">
-        <f aca="false">SUM(D39:D51)</f>
-        <v>412770</v>
-      </c>
+      <c r="E51" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2166,1163 +2167,1163 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="53.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="32.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="53.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13" t="s">
+      <c r="D1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15" t="n">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16" t="n">
         <v>189323</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13" t="s">
+      <c r="D2" s="16"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17" t="n">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="n">
         <v>204611</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="18" t="s">
+      <c r="D3" s="18"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20" t="n">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="n">
         <v>221513</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13" t="s">
+      <c r="D4" s="21"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="n">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="n">
         <v>239316</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13" t="s">
+      <c r="D5" s="18"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="n">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="n">
         <v>219117</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13" t="s">
+      <c r="D6" s="21"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="n">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="n">
         <v>232890</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="n">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="n">
         <v>246178</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="n">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18" t="n">
         <v>253904</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="n">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="n">
         <v>235701</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="n">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18" t="n">
         <v>251936</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20" t="n">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="n">
         <v>258043</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="n">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18" t="n">
         <v>256671</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="n">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="n">
         <v>250668</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="n">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="n">
         <v>268709</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="n">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21" t="n">
         <v>274126</v>
       </c>
-      <c r="D16" s="20"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17" t="n">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18" t="n">
         <v>294208</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="n">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21" t="n">
         <v>276927</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17" t="n">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18" t="n">
         <v>292789</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20" t="n">
+      <c r="B20" s="20"/>
+      <c r="C20" s="21" t="n">
         <v>308896</v>
       </c>
-      <c r="D20" s="20"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17" t="n">
+      <c r="B21" s="17"/>
+      <c r="C21" s="18" t="n">
         <v>320481</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20" t="n">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="n">
         <v>312470</v>
       </c>
-      <c r="D22" s="20"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17" t="n">
+      <c r="B23" s="17"/>
+      <c r="C23" s="18" t="n">
         <v>323724</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20" t="n">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21" t="n">
         <v>332524</v>
       </c>
-      <c r="D24" s="20"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17" t="n">
+      <c r="B25" s="17"/>
+      <c r="C25" s="18" t="n">
         <v>347038</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20" t="n">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="n">
         <v>342297</v>
       </c>
-      <c r="D26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17" t="n">
+      <c r="B27" s="17"/>
+      <c r="C27" s="18" t="n">
         <v>367363</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20" t="n">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21" t="n">
         <v>379795</v>
       </c>
-      <c r="D28" s="20"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17" t="n">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18" t="n">
         <v>399333</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20" t="n">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21" t="n">
         <v>397242</v>
       </c>
-      <c r="D30" s="20"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17" t="n">
+      <c r="B31" s="17"/>
+      <c r="C31" s="18" t="n">
         <v>418987</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="n">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21" t="n">
         <v>439350</v>
       </c>
-      <c r="D32" s="20"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17" t="n">
+      <c r="B33" s="17"/>
+      <c r="C33" s="18" t="n">
         <v>462372</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20" t="n">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21" t="n">
         <v>444783</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17" t="n">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18" t="n">
         <v>481795</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20" t="n">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="n">
         <v>505252</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17" t="n">
+      <c r="B37" s="17"/>
+      <c r="C37" s="18" t="n">
         <v>525920</v>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20" t="n">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21" t="n">
         <v>499710</v>
       </c>
-      <c r="D38" s="20"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17" t="n">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18" t="n">
         <v>535557</v>
       </c>
-      <c r="D39" s="17"/>
+      <c r="D39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20" t="n">
+      <c r="B40" s="20"/>
+      <c r="C40" s="21" t="n">
         <v>552859</v>
       </c>
-      <c r="D40" s="20"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17" t="n">
+      <c r="B41" s="17"/>
+      <c r="C41" s="18" t="n">
         <v>582458</v>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20" t="n">
+      <c r="B42" s="20"/>
+      <c r="C42" s="21" t="n">
         <v>554270</v>
       </c>
-      <c r="D42" s="20"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17" t="n">
+      <c r="B43" s="17"/>
+      <c r="C43" s="18" t="n">
         <v>581977</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20" t="n">
+      <c r="B44" s="20"/>
+      <c r="C44" s="21" t="n">
         <v>617848</v>
       </c>
-      <c r="D44" s="20"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17" t="n">
+      <c r="B45" s="17"/>
+      <c r="C45" s="18" t="n">
         <v>655355</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20" t="n">
+      <c r="B46" s="20"/>
+      <c r="C46" s="21" t="n">
         <v>631423</v>
       </c>
-      <c r="D46" s="20"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17" t="n">
+      <c r="B47" s="17"/>
+      <c r="C47" s="18" t="n">
         <v>670655</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="18"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19" t="s">
+      <c r="A48" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20" t="n">
+      <c r="B48" s="20"/>
+      <c r="C48" s="21" t="n">
         <v>691846</v>
       </c>
-      <c r="D48" s="20"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17" t="n">
+      <c r="B49" s="17"/>
+      <c r="C49" s="18" t="n">
         <v>726339</v>
       </c>
-      <c r="D49" s="17"/>
+      <c r="D49" s="18"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20" t="n">
+      <c r="B50" s="20"/>
+      <c r="C50" s="21" t="n">
         <v>712055</v>
       </c>
-      <c r="D50" s="20"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17" t="n">
+      <c r="B51" s="17"/>
+      <c r="C51" s="18" t="n">
         <v>769525</v>
       </c>
-      <c r="D51" s="17"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20" t="n">
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="n">
         <v>812603</v>
       </c>
-      <c r="D52" s="20"/>
+      <c r="D52" s="21"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17" t="n">
+      <c r="B53" s="17"/>
+      <c r="C53" s="18" t="n">
         <v>815620</v>
       </c>
-      <c r="D53" s="17"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20" t="n">
+      <c r="B54" s="20"/>
+      <c r="C54" s="21" t="n">
         <v>756127</v>
       </c>
-      <c r="D54" s="20"/>
+      <c r="D54" s="21"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17" t="n">
+      <c r="B55" s="17"/>
+      <c r="C55" s="18" t="n">
         <v>803577</v>
       </c>
-      <c r="D55" s="17"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20" t="n">
+      <c r="B56" s="20"/>
+      <c r="C56" s="21" t="n">
         <v>852843</v>
       </c>
-      <c r="D56" s="20"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17" t="n">
+      <c r="B57" s="17"/>
+      <c r="C57" s="18" t="n">
         <v>920492</v>
       </c>
-      <c r="D57" s="17"/>
+      <c r="D57" s="18"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19" t="s">
+      <c r="A58" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20" t="n">
+      <c r="B58" s="20"/>
+      <c r="C58" s="21" t="n">
         <v>886397</v>
       </c>
-      <c r="D58" s="20"/>
+      <c r="D58" s="21"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="17" t="n">
+      <c r="B59" s="17"/>
+      <c r="C59" s="18" t="n">
         <v>944145</v>
       </c>
-      <c r="D59" s="17"/>
+      <c r="D59" s="18"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20" t="n">
+      <c r="B60" s="20"/>
+      <c r="C60" s="21" t="n">
         <v>997935</v>
       </c>
-      <c r="D60" s="20"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17" t="n">
+      <c r="B61" s="17"/>
+      <c r="C61" s="18" t="n">
         <v>1057370</v>
       </c>
-      <c r="D61" s="17"/>
+      <c r="D61" s="18"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20" t="n">
+      <c r="B62" s="20"/>
+      <c r="C62" s="21" t="n">
         <v>1016531</v>
       </c>
-      <c r="D62" s="20"/>
+      <c r="D62" s="21"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17" t="n">
+      <c r="B63" s="17"/>
+      <c r="C63" s="18" t="n">
         <v>1086712</v>
       </c>
-      <c r="D63" s="17"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20" t="n">
+      <c r="B64" s="20"/>
+      <c r="C64" s="21" t="n">
         <v>1112334</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D64" s="21"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17" t="n">
+      <c r="B65" s="17"/>
+      <c r="C65" s="18" t="n">
         <v>1160805</v>
       </c>
-      <c r="D65" s="17"/>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20" t="n">
+      <c r="B66" s="20"/>
+      <c r="C66" s="21" t="n">
         <v>1129474</v>
       </c>
-      <c r="D66" s="20"/>
+      <c r="D66" s="21"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17" t="n">
+      <c r="B67" s="17"/>
+      <c r="C67" s="18" t="n">
         <v>1183126</v>
       </c>
-      <c r="D67" s="17"/>
+      <c r="D67" s="18"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20" t="n">
+      <c r="B68" s="20"/>
+      <c r="C68" s="21" t="n">
         <v>1230449</v>
       </c>
-      <c r="D68" s="20"/>
+      <c r="D68" s="21"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17" t="n">
+      <c r="B69" s="17"/>
+      <c r="C69" s="18" t="n">
         <v>1271711</v>
       </c>
-      <c r="D69" s="17"/>
+      <c r="D69" s="18"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20" t="n">
+      <c r="B70" s="20"/>
+      <c r="C70" s="21" t="n">
         <v>1241614</v>
       </c>
-      <c r="D70" s="20"/>
+      <c r="D70" s="21"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17" t="n">
+      <c r="B71" s="17"/>
+      <c r="C71" s="18" t="n">
         <v>1322580</v>
       </c>
-      <c r="D71" s="17"/>
+      <c r="D71" s="18"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20" t="n">
+      <c r="B72" s="20"/>
+      <c r="C72" s="21" t="n">
         <v>1354134</v>
       </c>
-      <c r="D72" s="20"/>
+      <c r="D72" s="21"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="17" t="n">
+      <c r="B73" s="17"/>
+      <c r="C73" s="18" t="n">
         <v>1413291</v>
       </c>
-      <c r="D73" s="17"/>
+      <c r="D73" s="18"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20" t="n">
+      <c r="B74" s="20"/>
+      <c r="C74" s="21" t="n">
         <v>1385981</v>
       </c>
-      <c r="D74" s="20"/>
+      <c r="D74" s="21"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="17" t="n">
+      <c r="B75" s="17"/>
+      <c r="C75" s="18" t="n">
         <v>1422322</v>
       </c>
-      <c r="D75" s="17"/>
+      <c r="D75" s="18"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="20" t="n">
+      <c r="B76" s="20"/>
+      <c r="C76" s="21" t="n">
         <v>1462125</v>
       </c>
-      <c r="D76" s="20"/>
+      <c r="D76" s="21"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="17" t="n">
+      <c r="B77" s="17"/>
+      <c r="C77" s="18" t="n">
         <v>1508525</v>
       </c>
-      <c r="D77" s="17"/>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20" t="n">
+      <c r="B78" s="20"/>
+      <c r="C78" s="21" t="n">
         <v>1456659</v>
       </c>
-      <c r="D78" s="20"/>
+      <c r="D78" s="21"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="17" t="n">
+      <c r="B79" s="17"/>
+      <c r="C79" s="18" t="n">
         <v>1479970</v>
       </c>
-      <c r="D79" s="17"/>
+      <c r="D79" s="18"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="19" t="s">
+      <c r="A80" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="20" t="n">
+      <c r="B80" s="20"/>
+      <c r="C80" s="21" t="n">
         <v>1508228</v>
       </c>
-      <c r="D80" s="20"/>
+      <c r="D80" s="21"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="17" t="n">
+      <c r="B81" s="17"/>
+      <c r="C81" s="18" t="n">
         <v>1550930</v>
       </c>
-      <c r="D81" s="17"/>
+      <c r="D81" s="18"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="19" t="s">
+      <c r="A82" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B82" s="19"/>
-      <c r="C82" s="20" t="n">
+      <c r="B82" s="20"/>
+      <c r="C82" s="21" t="n">
         <v>1500299</v>
       </c>
-      <c r="D82" s="20"/>
+      <c r="D82" s="21"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="17" t="n">
+      <c r="B83" s="17"/>
+      <c r="C83" s="18" t="n">
         <v>1559050</v>
       </c>
-      <c r="D83" s="17"/>
+      <c r="D83" s="18"/>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="19" t="s">
+      <c r="A84" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="20" t="n">
+      <c r="B84" s="20"/>
+      <c r="C84" s="21" t="n">
         <v>1577170</v>
       </c>
-      <c r="D84" s="20"/>
+      <c r="D84" s="21"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B85" s="16"/>
-      <c r="C85" s="17" t="n">
+      <c r="B85" s="17"/>
+      <c r="C85" s="18" t="n">
         <v>1632808</v>
       </c>
-      <c r="D85" s="17"/>
+      <c r="D85" s="18"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="19" t="s">
+      <c r="A86" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20" t="n">
+      <c r="B86" s="20"/>
+      <c r="C86" s="21" t="n">
         <v>1585673</v>
       </c>
-      <c r="D86" s="20"/>
+      <c r="D86" s="21"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="16"/>
-      <c r="C87" s="17" t="n">
+      <c r="B87" s="17"/>
+      <c r="C87" s="18" t="n">
         <v>1630730</v>
       </c>
-      <c r="D87" s="17"/>
+      <c r="D87" s="18"/>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B88" s="19"/>
-      <c r="C88" s="20" t="n">
+      <c r="B88" s="20"/>
+      <c r="C88" s="21" t="n">
         <v>1648635</v>
       </c>
-      <c r="D88" s="20"/>
+      <c r="D88" s="21"/>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="16"/>
-      <c r="C89" s="17" t="n">
+      <c r="B89" s="17"/>
+      <c r="C89" s="18" t="n">
         <v>1720441</v>
       </c>
-      <c r="D89" s="17"/>
+      <c r="D89" s="18"/>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="20" t="n">
+      <c r="B90" s="20"/>
+      <c r="C90" s="21" t="n">
         <v>1682083</v>
       </c>
-      <c r="D90" s="20"/>
+      <c r="D90" s="21"/>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B91" s="16"/>
-      <c r="C91" s="17" t="n">
+      <c r="B91" s="17"/>
+      <c r="C91" s="18" t="n">
         <v>1734099</v>
       </c>
-      <c r="D91" s="17"/>
+      <c r="D91" s="18"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="20" t="n">
+      <c r="B92" s="20"/>
+      <c r="C92" s="21" t="n">
         <v>1767856</v>
       </c>
-      <c r="D92" s="20"/>
+      <c r="D92" s="21"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="17" t="n">
+      <c r="B93" s="17"/>
+      <c r="C93" s="18" t="n">
         <v>1820103</v>
       </c>
-      <c r="D93" s="17"/>
+      <c r="D93" s="18"/>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="19" t="s">
+      <c r="A94" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="20" t="n">
+      <c r="B94" s="20"/>
+      <c r="C94" s="21" t="n">
         <v>1757554</v>
       </c>
-      <c r="D94" s="20"/>
+      <c r="D94" s="21"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B95" s="16"/>
-      <c r="C95" s="17" t="n">
+      <c r="B95" s="17"/>
+      <c r="C95" s="18" t="n">
         <v>1826761</v>
       </c>
-      <c r="D95" s="17"/>
+      <c r="D95" s="18"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="20" t="n">
+      <c r="B96" s="20"/>
+      <c r="C96" s="21" t="n">
         <v>1880610</v>
       </c>
-      <c r="D96" s="20"/>
+      <c r="D96" s="21"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B97" s="16"/>
-      <c r="C97" s="17" t="n">
+      <c r="B97" s="17"/>
+      <c r="C97" s="18" t="n">
         <v>1924206</v>
       </c>
-      <c r="D97" s="17"/>
+      <c r="D97" s="18"/>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="19" t="s">
+      <c r="A98" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B98" s="19"/>
-      <c r="C98" s="20" t="n">
+      <c r="B98" s="20"/>
+      <c r="C98" s="21" t="n">
         <v>1868095</v>
       </c>
-      <c r="D98" s="20"/>
+      <c r="D98" s="21"/>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="17" t="n">
+      <c r="B99" s="17"/>
+      <c r="C99" s="18" t="n">
         <v>1752724</v>
       </c>
-      <c r="D99" s="17"/>
+      <c r="D99" s="18"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="19" t="s">
+      <c r="A100" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="20" t="n">
+      <c r="B100" s="20"/>
+      <c r="C100" s="21" t="n">
         <v>1929323</v>
       </c>
-      <c r="D100" s="20"/>
+      <c r="D100" s="21"/>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="17" t="n">
+      <c r="B101" s="17"/>
+      <c r="C101" s="18" t="n">
         <v>2059455</v>
       </c>
-      <c r="D101" s="17"/>
+      <c r="D101" s="18"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="19" t="s">
+      <c r="A102" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B102" s="19"/>
-      <c r="C102" s="20" t="n">
+      <c r="B102" s="20"/>
+      <c r="C102" s="21" t="n">
         <v>2156670</v>
       </c>
-      <c r="D102" s="20"/>
+      <c r="D102" s="21"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="17" t="n">
+      <c r="B103" s="17"/>
+      <c r="C103" s="18" t="n">
         <v>2203639</v>
       </c>
-      <c r="D103" s="17"/>
+      <c r="D103" s="18"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="19" t="s">
+      <c r="A104" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B104" s="19"/>
-      <c r="C104" s="20" t="n">
+      <c r="B104" s="20"/>
+      <c r="C104" s="21" t="n">
         <v>2295851</v>
       </c>
-      <c r="D104" s="20"/>
+      <c r="D104" s="21"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B105" s="16"/>
-      <c r="C105" s="17" t="n">
+      <c r="B105" s="17"/>
+      <c r="C105" s="18" t="n">
         <v>2355982</v>
       </c>
-      <c r="D105" s="17"/>
+      <c r="D105" s="18"/>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="19" t="s">
+      <c r="A106" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B106" s="19"/>
-      <c r="C106" s="20" t="n">
+      <c r="B106" s="20"/>
+      <c r="C106" s="21" t="n">
         <v>2319528</v>
       </c>
-      <c r="D106" s="20"/>
+      <c r="D106" s="21"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="17" t="n">
+      <c r="B107" s="17"/>
+      <c r="C107" s="18" t="n">
         <v>2517481</v>
       </c>
-      <c r="D107" s="17"/>
+      <c r="D107" s="18"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="19" t="s">
+      <c r="A108" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B108" s="19"/>
-      <c r="C108" s="20" t="n">
+      <c r="B108" s="20"/>
+      <c r="C108" s="21" t="n">
         <v>2601182</v>
       </c>
-      <c r="D108" s="20"/>
+      <c r="D108" s="21"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B109" s="16"/>
-      <c r="C109" s="17" t="n">
+      <c r="B109" s="17"/>
+      <c r="C109" s="18" t="n">
         <v>2641485</v>
       </c>
-      <c r="D109" s="17"/>
+      <c r="D109" s="18"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="19" t="s">
+      <c r="A110" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B110" s="19"/>
-      <c r="C110" s="20" t="n">
+      <c r="B110" s="20"/>
+      <c r="C110" s="21" t="n">
         <v>2582706</v>
       </c>
-      <c r="D110" s="20"/>
+      <c r="D110" s="21"/>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B111" s="16"/>
-      <c r="C111" s="17" t="n">
+      <c r="B111" s="17"/>
+      <c r="C111" s="18" t="n">
         <v>2701105</v>
       </c>
-      <c r="D111" s="17"/>
+      <c r="D111" s="18"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="19" t="s">
+      <c r="A112" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B112" s="19"/>
-      <c r="C112" s="20" t="n">
+      <c r="B112" s="20"/>
+      <c r="C112" s="21" t="n">
         <v>2740961</v>
       </c>
-      <c r="D112" s="20"/>
+      <c r="D112" s="21"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="21" t="s">
+      <c r="A113" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B113" s="21"/>
-      <c r="C113" s="22" t="n">
+      <c r="B113" s="22"/>
+      <c r="C113" s="23" t="n">
         <v>2831340</v>
       </c>
-      <c r="D113" s="22"/>
+      <c r="D113" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="225">
